--- a/Labfiles/01-prebuild-models/test-invoices/General ledger.xlsx
+++ b/Labfiles/01-prebuild-models/test-invoices/General ledger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DocToExcel2\DocToExcel\Labfiles\01-prebuild-models\test-invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB98E053-94A9-425C-9787-28011CD14E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FE2C50-563A-454A-BCF8-1E652FA1F23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F6AFB73C-FEF0-4987-A120-097B47EFCFE7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>ALL LEDGERS</t>
   </si>
@@ -81,93 +81,12 @@
   </si>
   <si>
     <t>MYR</t>
-  </si>
-  <si>
-    <t>14/04/2023</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>SO23/01446</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cleaning Service 4 Hrs 1 Person|Date Service : 1/4/04/2023</t>
-  </si>
-  <si>
-    <t>COBRIDGE VENTURE SDN BHD</t>
-  </si>
-  <si>
-    <t>15/04/2023</t>
-  </si>
-  <si>
-    <t>IN23/12651</t>
-  </si>
-  <si>
-    <t>Cleaning Service 4 Hrs 2 Persons</t>
-  </si>
-  <si>
-    <t>30/06/2023</t>
-  </si>
-  <si>
-    <t>IN23/13373</t>
-  </si>
-  <si>
-    <t>Cleaning Service 4 Hrs 1 Person|Date service : 01/06/2023</t>
-  </si>
-  <si>
-    <t>IN23/13668</t>
-  </si>
-  <si>
-    <t>Cleaning Service 4 Hrs 1 Person (16/06/2023)</t>
-  </si>
-  <si>
-    <t>31/07/2023</t>
-  </si>
-  <si>
-    <t>IN23/14063</t>
-  </si>
-  <si>
-    <t>Cleaning Service 4 Hrs 1 Person (06/07/2023) &amp; (21/07/2023)</t>
-  </si>
-  <si>
-    <t>31/08/2023</t>
-  </si>
-  <si>
-    <t>IN23/14621</t>
-  </si>
-  <si>
-    <t>Cleaning Service 4 Hrs 1 Person</t>
-  </si>
-  <si>
-    <t>30/09/2023</t>
-  </si>
-  <si>
-    <t>IN23/15536</t>
-  </si>
-  <si>
-    <t>Cleaning Service 4 Hrs 1 Person (22/09/2023)</t>
-  </si>
-  <si>
-    <t>30/11/2023</t>
-  </si>
-  <si>
-    <t>IN23/16747</t>
-  </si>
-  <si>
-    <t>Cleaning Service 4 Hrs 1 Person (17/11/2023)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###,###,###,##0.00_);[Red]\(###,###,###,##0.00\)"/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -208,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -227,26 +146,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -259,8 +166,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -268,12 +173,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,7 +490,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -621,378 +520,196 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1"/>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:13" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="14" t="s">
+      <c r="J8" s="5"/>
+      <c r="K8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="K9" s="8" t="s">
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="K9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="10">
-        <v>400</v>
-      </c>
-      <c r="L10" s="10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="18">
-        <v>180</v>
-      </c>
-      <c r="L11" s="18">
-        <v>0</v>
-      </c>
-      <c r="M11" s="18">
-        <v>580</v>
-      </c>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="10">
-        <v>100</v>
-      </c>
-      <c r="L12" s="10">
-        <v>0</v>
-      </c>
-      <c r="M12" s="10">
-        <v>680</v>
-      </c>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="10">
-        <v>100</v>
-      </c>
-      <c r="L13" s="10">
-        <v>0</v>
-      </c>
-      <c r="M13" s="10">
-        <v>780</v>
-      </c>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="10">
-        <v>200</v>
-      </c>
-      <c r="L14" s="10">
-        <v>0</v>
-      </c>
-      <c r="M14" s="10">
-        <v>980</v>
-      </c>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="10">
-        <v>200</v>
-      </c>
-      <c r="L15" s="10">
-        <v>0</v>
-      </c>
-      <c r="M15" s="10">
-        <v>1180</v>
-      </c>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="10">
-        <v>100</v>
-      </c>
-      <c r="L16" s="10">
-        <v>0</v>
-      </c>
-      <c r="M16" s="10">
-        <v>1280</v>
-      </c>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="10">
-        <v>100</v>
-      </c>
-      <c r="L17" s="10">
-        <v>0</v>
-      </c>
-      <c r="M17" s="10">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="K18" s="11">
-        <f>SUM(K10:K17)</f>
-        <v>1380</v>
-      </c>
-      <c r="L18" s="11">
-        <f>SUM(L10:L17)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="11">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" thickTop="1"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1"/>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="1" header="0.5" footer="0.5"/>
